--- a/thequalities.xlsx
+++ b/thequalities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brendon\Documents\GitHub\MusicDescriptorsBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C6D8AC-E8FF-46BB-A090-57B7C15BA962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EFA57C-5AE3-4217-9935-B2E84E0AE832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{70576A32-3121-425E-8954-07BD356088CE}"/>
+    <workbookView minimized="1" xWindow="-23190" yWindow="4005" windowWidth="21600" windowHeight="11370" xr2:uid="{70576A32-3121-425E-8954-07BD356088CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>Harmonic Material</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Whole tone</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Quintal/Quartal</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>Baroque</t>
   </si>
   <si>
-    <t>Classical Romantic</t>
-  </si>
-  <si>
     <t>Impressionist</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t>Varied: gradual crescendo</t>
   </si>
   <si>
-    <t>some of each, soft and loud</t>
-  </si>
-  <si>
     <t>Ascending</t>
   </si>
   <si>
@@ -203,37 +194,49 @@
     <t>Terrace</t>
   </si>
   <si>
+    <t>Conjunct</t>
+  </si>
+  <si>
+    <t>Disjunct</t>
+  </si>
+  <si>
+    <t>Narrow</t>
+  </si>
+  <si>
+    <t>Wide</t>
+  </si>
+  <si>
+    <t>Very wide</t>
+  </si>
+  <si>
+    <t>Staccato</t>
+  </si>
+  <si>
+    <t>Marcato</t>
+  </si>
+  <si>
+    <t>Legato</t>
+  </si>
+  <si>
+    <t>Tenuto</t>
+  </si>
+  <si>
+    <t>Some of each, soft and loud</t>
+  </si>
+  <si>
     <t>I do not think this excerpt has a melody</t>
   </si>
   <si>
-    <t>Conjunct</t>
-  </si>
-  <si>
-    <t>Disjunct</t>
-  </si>
-  <si>
-    <t>A combination of conjunct and disjunct</t>
-  </si>
-  <si>
-    <t>Narrow</t>
-  </si>
-  <si>
-    <t>Wide</t>
-  </si>
-  <si>
-    <t>Very wide</t>
-  </si>
-  <si>
-    <t>Staccato</t>
-  </si>
-  <si>
-    <t>Marcato</t>
-  </si>
-  <si>
-    <t>Legato</t>
-  </si>
-  <si>
-    <t>Tenuto</t>
+    <t>Combination of conjunct and disjunct</t>
+  </si>
+  <si>
+    <t>Classical</t>
+  </si>
+  <si>
+    <t>Romantic</t>
+  </si>
+  <si>
+    <t>Modal</t>
   </si>
 </sst>
 </file>
@@ -587,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDBDB36-B8C8-45A3-84EE-1E58ACBC1DFE}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,31 +645,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -674,31 +677,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -706,31 +709,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -738,31 +741,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -770,87 +773,90 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
